--- a/v2CorrectionGridBJAssignment (1).xlsx
+++ b/v2CorrectionGridBJAssignment (1).xlsx
@@ -5,17 +5,16 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phlli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phlli\OneDrive\Documents\Fall 2018\Comp3004\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13665" windowHeight="5903" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027" refMode="R1C1" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="101">
   <si>
     <t>Your game starts</t>
   </si>
@@ -348,6 +347,9 @@
   </si>
   <si>
     <t>Amanya</t>
+  </si>
+  <si>
+    <t>testSame()</t>
   </si>
 </sst>
 </file>
@@ -909,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1787,7 +1789,9 @@
       <c r="E45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
